--- a/examples/apex_USp/src/xcku15p-ffva1760-2_GTY.xlsx
+++ b/examples/apex_USp/src/xcku15p-ffva1760-2_GTY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -5586,7 +5586,7 @@
   <dimension ref="A1:F829"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A745" activeCellId="0" sqref="A745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12203,8 +12203,8 @@
   </sheetPr>
   <dimension ref="A1:M311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19992,8 +19992,8 @@
   </sheetPr>
   <dimension ref="A1:G812"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B622" activeCellId="0" sqref="B622"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A780" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D237" activeCellId="0" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/examples/apex_USp/src/xcku15p-ffva1760-2_GTY.xlsx
+++ b/examples/apex_USp/src/xcku15p-ffva1760-2_GTY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="US+_GTY_tx_rx" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6946" uniqueCount="1608">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -4673,6 +4673,9 @@
     <t xml:space="preserve">mgt_gty_rx_if[0].rxoutclk</t>
   </si>
   <si>
+    <t xml:space="preserve">bufg_gt_tux</t>
+  </si>
+  <si>
     <t xml:space="preserve">mgt_gty_rx_if[1].rxoutclk</t>
   </si>
   <si>
@@ -4784,7 +4787,7 @@
     <t xml:space="preserve">mgt_quad_name</t>
   </si>
   <si>
-    <t xml:space="preserve">GTTE4_QUAD</t>
+    <t xml:space="preserve">GTYE4_QUAD</t>
   </si>
   <si>
     <t xml:space="preserve">QUAD module name</t>
@@ -5001,7 +5004,7 @@
   <dimension ref="A1:F829"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A745" activeCellId="1" sqref="G248 A745"/>
+      <selection pane="topLeft" activeCell="A745" activeCellId="0" sqref="A745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11618,8 +11621,8 @@
   </sheetPr>
   <dimension ref="A1:M294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A218" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G248" activeCellId="0" sqref="G248"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11940,8 +11943,8 @@
       <c r="B17" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>846</v>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>515</v>
@@ -11975,8 +11978,8 @@
       <c r="B19" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>846</v>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>16</v>
@@ -11994,8 +11997,8 @@
       <c r="B20" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>846</v>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
@@ -16946,7 +16949,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D82" activeCellId="1" sqref="G248 D82"/>
+      <selection pane="topLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18233,7 +18236,7 @@
   <dimension ref="A1:G901"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="G248 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32964,7 +32967,7 @@
   <dimension ref="A1:G709"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="G248 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41044,7 +41047,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="G248 E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42738,7 +42741,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="G248 E12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43006,6 +43009,9 @@
       <c r="C24" s="0" t="s">
         <v>1547</v>
       </c>
+      <c r="E24" s="0" t="s">
+        <v>1548</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -43015,6 +43021,9 @@
         <v>1531</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>1548</v>
       </c>
     </row>
@@ -43026,7 +43035,10 @@
         <v>1532</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1549</v>
+        <v>1550</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43037,34 +43049,37 @@
         <v>1533</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>1546</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>1541</v>
@@ -43072,7 +43087,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>1541</v>
@@ -43096,8 +43111,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="1" sqref="G248 C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43121,7 +43136,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43134,10 +43149,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1527</v>
@@ -43145,246 +43160,246 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">B8</f>
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">B9/B5</f>
         <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>528</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>871</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>823</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>732</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>798</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>661</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>717</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>646</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>700</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>639</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>511</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>899</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
   </sheetData>
